--- a/biology/Zoologie/Eolagurus_przewalskii/Eolagurus_przewalskii.xlsx
+++ b/biology/Zoologie/Eolagurus_przewalskii/Eolagurus_przewalskii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lemming brun
 Eolagurus przewalskii, le Lemming brun, est une espèce de rongeurs de la famille des Cricetidae.
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Eolagurus przewalskii a été décrite pour la première fois en 1889 par le zoologiste russe Eugen Büchner[1] (1861-1913) sous le protonyme Eremiomys przewalskii[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Eolagurus przewalskii a été décrite pour la première fois en 1889 par le zoologiste russe Eugen Büchner (1861-1913) sous le protonyme Eremiomys przewalskii.
 </t>
         </is>
       </c>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,9 +585,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Chine et en Mongolie[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Chine et en Mongolie.
 </t>
         </is>
       </c>
@@ -600,9 +618,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, przewalskii, lui a été donnée en l'honneur de l'officier, l'explorateur et le naturaliste russe Nikolaï Prjevalski (1839-1888)[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, przewalskii, lui a été donnée en l'honneur de l'officier, l'explorateur et le naturaliste russe Nikolaï Prjevalski (1839-1888).
 </t>
         </is>
       </c>
@@ -631,7 +651,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(ru) Eugen Büchner, Научные результаты путешествия Н. М. Пржевальского по Центральной Азии [Résultats scientifiques du voyage de N. M. Przhevalsky à travers l'Asie centrale], vol. 1, t. 1, Saint-Pétersbourg, Tip. Akademīi,‎ 1888-1894, 364 p. (lire en ligne), p. 127-135.</t>
         </is>
